--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/活动公告表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E360BD-F19F-4B38-8FD1-264C0DB46A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37531712-FB7E-4D69-9781-A08320BD7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameBulletin" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/活动公告表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37531712-FB7E-4D69-9781-A08320BD7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9B6FB-9889-4D92-8984-6ED21D03220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameBulletin" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,14 +408,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -497,7 +489,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,7 +805,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1130,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
